--- a/docs/test_grid.xlsx
+++ b/docs/test_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t xml:space="preserve">cells_distance = x + y = x + x * k</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">t :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сдвиг</t>
   </si>
 </sst>
 </file>
@@ -275,13 +278,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
@@ -317,14 +320,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>-720</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
@@ -361,13 +364,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
@@ -401,6 +404,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Линия 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3528000" y="12397680"/>
+          <a:ext cx="817920" cy="650160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="18000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -409,14 +455,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="S2:AL60"/>
+  <dimension ref="Q2:AL82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P43" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U48" activeCellId="0" sqref="U48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P67" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S52" activeCellId="0" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.79"/>
@@ -1054,42 +1101,42 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S51" s="0" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="U51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="AA51" s="1" t="n">
         <f aca="false"> $S51 * AA50</f>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AE51" s="1" t="n">
         <f aca="false"> $S$51 * AE50</f>
-        <v>-0.571428571428571</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="AF51" s="1" t="n">
         <f aca="false"> $S$51 * AF50</f>
-        <v>-1.14285714285714</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="AG51" s="1" t="n">
         <f aca="false"> $S$51 * AG50</f>
-        <v>-1.71428571428571</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="AH51" s="1" t="n">
         <f aca="false"> $S$51 * AH50</f>
-        <v>-2.28571428571429</v>
+        <v>2.28571428571429</v>
       </c>
       <c r="AI51" s="1" t="n">
         <f aca="false"> $S$51 * AI50</f>
-        <v>-2.85714285714286</v>
+        <v>2.85714285714286</v>
       </c>
       <c r="AJ51" s="1" t="n">
         <f aca="false"> $S$51 * AJ50</f>
-        <v>-3.42857142857143</v>
+        <v>3.42857142857143</v>
       </c>
       <c r="AK51" s="1" t="n">
         <f aca="false"> $S$51 * AK50</f>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AL51" s="1"/>
     </row>
@@ -1203,6 +1250,252 @@
         <v>3</v>
       </c>
       <c r="Z60" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U68" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U69" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U70" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U71" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD71" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK71" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA72" s="1" t="n">
+        <f aca="false"> AA71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>1</v>
+      </c>
+      <c r="AE72" s="1" t="n">
+        <f aca="false"> AE71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="AF72" s="1" t="n">
+        <f aca="false"> AF71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="AG72" s="1" t="n">
+        <f aca="false"> AG71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="AH72" s="1" t="n">
+        <f aca="false"> AH71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="AI72" s="1" t="n">
+        <f aca="false"> AI71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="AJ72" s="1" t="n">
+        <f aca="false"> AJ71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="AK72" s="1" t="n">
+        <f aca="false"> AK71 / (ABS($S$51) + ABS($S$52))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q73" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA73" s="1" t="n">
+        <f aca="false"> $S73 * AA72</f>
+        <v>4</v>
+      </c>
+      <c r="AE73" s="1" t="n">
+        <f aca="false"> $S$51 * AE72</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="AF73" s="1" t="n">
+        <f aca="false"> $S$51 * AF72</f>
+        <v>1.14285714285714</v>
+      </c>
+      <c r="AG73" s="1" t="n">
+        <f aca="false"> $S$51 * AG72</f>
+        <v>1.71428571428571</v>
+      </c>
+      <c r="AH73" s="1" t="n">
+        <f aca="false"> $S$51 * AH72</f>
+        <v>2.28571428571429</v>
+      </c>
+      <c r="AI73" s="1" t="n">
+        <f aca="false"> $S$51 * AI72</f>
+        <v>2.85714285714286</v>
+      </c>
+      <c r="AJ73" s="1" t="n">
+        <f aca="false"> $S$51 * AJ72</f>
+        <v>3.42857142857143</v>
+      </c>
+      <c r="AK73" s="1" t="n">
+        <f aca="false"> $S$51 * AK72</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q74" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA74" s="1" t="n">
+        <f aca="false"> $S74 * AA72</f>
+        <v>3</v>
+      </c>
+      <c r="AE74" s="1" t="n">
+        <f aca="false"> $S$52 * AE72</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="AF74" s="1" t="n">
+        <f aca="false"> $S$52 * AF72</f>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="AG74" s="1" t="n">
+        <f aca="false"> $S$52 * AG72</f>
+        <v>1.28571428571429</v>
+      </c>
+      <c r="AH74" s="1" t="n">
+        <f aca="false"> $S$52 * AH72</f>
+        <v>1.71428571428571</v>
+      </c>
+      <c r="AI74" s="1" t="n">
+        <f aca="false"> $S$52 * AI72</f>
+        <v>2.14285714285714</v>
+      </c>
+      <c r="AJ74" s="1" t="n">
+        <f aca="false"> $S$52 * AJ72</f>
+        <v>2.57142857142857</v>
+      </c>
+      <c r="AK74" s="1" t="n">
+        <f aca="false"> $S$52 * AK72</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" s="3"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U82" s="2"/>
+      <c r="V82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z82" s="2" t="n">
         <v>4</v>
       </c>
     </row>

--- a/docs/test_grid.xlsx
+++ b/docs/test_grid.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -176,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +198,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,15 +368,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>158760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -381,7 +385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3389400" y="8940600"/>
+          <a:off x="3481560" y="8934120"/>
           <a:ext cx="817920" cy="650160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -407,15 +411,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:colOff>42840</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -424,8 +428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3528000" y="12397680"/>
-          <a:ext cx="817920" cy="650160"/>
+          <a:off x="3527640" y="12551040"/>
+          <a:ext cx="641160" cy="494280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -447,6 +451,93 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156960</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>157680</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Линия 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3479760" y="12656880"/>
+          <a:ext cx="648720" cy="504720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="18000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2520</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Линия 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3175920" y="13886640"/>
+          <a:ext cx="473400" cy="313200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="18000">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -455,10 +546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="Q2:AL82"/>
+  <dimension ref="Q2:AL93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P67" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S52" activeCellId="0" sqref="S52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H85" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB90" activeCellId="0" sqref="AB90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1499,13 +1590,101 @@
         <v>4</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
